--- a/Mapping-SELECT.xlsx
+++ b/Mapping-SELECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I351355\Desktop\Project\CRM Move\CRM Tools\Code Remediation\VSC\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07CD053-B563-4F82-89D3-071ADF23FD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6375A6F7-E283-47A9-9C06-0B68404BBD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{61A84F1B-EBF3-44EC-AE1C-96276E48AF67}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="606">
   <si>
     <t>CRM_TABNAME</t>
   </si>
@@ -14577,6 +14577,12 @@
   </si>
   <si>
     <t>ZZ1_ZZTESTKUTTEXT12_SRH</t>
+  </si>
+  <si>
+    <t>ZZPUR_OF_LOAN</t>
+  </si>
+  <si>
+    <t>ZZSENDTOBID</t>
   </si>
 </sst>
 </file>
@@ -15795,8 +15801,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D250" sqref="D250"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B411" sqref="B411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -21544,6 +21550,34 @@
         <v>56</v>
       </c>
       <c r="D409" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="15" customHeight="1">
+      <c r="A410" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D410" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="15" customHeight="1">
+      <c r="A411" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D411" s="5" t="s">
         <v>603</v>
       </c>
     </row>
@@ -23539,67 +23573,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="C79:C82"/>
-    <mergeCell ref="D79:D82"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="D84:D87"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="C105:C108"/>
-    <mergeCell ref="D105:D108"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="D141:D144"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="C151:C154"/>
-    <mergeCell ref="D151:D154"/>
-    <mergeCell ref="C156:C159"/>
-    <mergeCell ref="D156:D159"/>
     <mergeCell ref="C177:C180"/>
     <mergeCell ref="D177:D180"/>
     <mergeCell ref="C161:C164"/>
@@ -23608,6 +23581,67 @@
     <mergeCell ref="D167:D170"/>
     <mergeCell ref="C172:C175"/>
     <mergeCell ref="D172:D175"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="C151:C154"/>
+    <mergeCell ref="D151:D154"/>
+    <mergeCell ref="C156:C159"/>
+    <mergeCell ref="D156:D159"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="D141:D144"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="D95:D98"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="C105:C108"/>
+    <mergeCell ref="D105:D108"/>
+    <mergeCell ref="C79:C82"/>
+    <mergeCell ref="D79:D82"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="D84:D87"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:D51"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23841,12 +23875,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -23988,15 +24019,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F68B6AE-6361-4F96-B717-E04CAC4BB84D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBE81B3-D5B6-4FBA-BD1C-CF2DD49C81C8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -24020,10 +24055,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDBE81B3-D5B6-4FBA-BD1C-CF2DD49C81C8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F68B6AE-6361-4F96-B717-E04CAC4BB84D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>